--- a/biology/Zoologie/Acteonoidea/Acteonoidea.xlsx
+++ b/biology/Zoologie/Acteonoidea/Acteonoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acteonoidea sont une super-famille de mollusques de la sous-classe des Heterobranchia selon World Register of Marine Species ou de celle des Orthogastropoda selon Ponder &amp; Lindberg, 1996.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quoique non assignée par le World Register of Marine Species, plusieurs classifications de référence en font une super-famille au sein de l'ordre des Cephalaspidea[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quoique non assignée par le World Register of Marine Species, plusieurs classifications de référence en font une super-famille au sein de l'ordre des Cephalaspidea,. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juin 2014)[3], sur la base de Bouchet &amp; Rocroi (2005) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juin 2014), sur la base de Bouchet &amp; Rocroi (2005) :
 famille Acteonidae d'Orbigny, 1843 -- 20 genres
 famille Aplustridae Gray, 1847 -- 7 genres
 famille Acteonellidae Gill, 1871 †
